--- a/DataConversion/GL_BV.xlsx
+++ b/DataConversion/GL_BV.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\DataConversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29FE329C-2518-4D7E-9EEA-3C7034C9B8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB249915-DF11-459F-A03C-F562A39039B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{982F12EC-8573-42B6-9695-E5BE8CB0F7EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BV" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,9 +92,6 @@
     <t>Carte de crédit</t>
   </si>
   <si>
-    <t>Compte fournisseur</t>
-  </si>
-  <si>
     <t>Impôt Fédéral à payer</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Solde</t>
+  </si>
+  <si>
+    <t>DAS à payer</t>
   </si>
 </sst>
 </file>
@@ -557,10 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFE0A5B-EFC8-4FE1-9162-267CCA0FF8ED}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,10 +572,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +716,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -723,7 +724,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -761,7 +762,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>-188.4</v>
@@ -769,7 +770,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -777,7 +778,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
         <v>-16972.539999999997</v>
@@ -785,7 +786,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -793,7 +794,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -801,7 +802,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -809,7 +810,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1">
         <v>699</v>
@@ -817,7 +818,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1">
         <v>249</v>
@@ -825,7 +826,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>15567</v>
@@ -833,7 +834,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>12776</v>
@@ -841,7 +842,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" s="1">
         <v>-1217.3700000000008</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="1">
         <v>10553.300000000001</v>
@@ -863,7 +864,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1">
         <v>-100</v>
@@ -871,7 +872,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1">
         <v>-300</v>
@@ -879,7 +880,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1">
         <v>-450576.65</v>
@@ -887,7 +888,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -898,7 +899,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1">
         <v>-450976.65</v>
